--- a/LF/TAS/Nigeria/2024/oct_2024/Yobe/ng_lf_tas_2410_2_fts_yb.xlsx
+++ b/LF/TAS/Nigeria/2024/oct_2024/Yobe/ng_lf_tas_2410_2_fts_yb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\oct_2024\Kogi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\oct_2024\Yobe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4155EE6A-34A9-4BED-A11F-B05EBECA971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0499A225-3C22-4088-939F-D35E9B8C33E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -553,19 +553,19 @@
     <t>20</t>
   </si>
   <si>
-    <t>ng_lf_tas_2410_2_fts_kg</t>
-  </si>
-  <si>
-    <t>(Octobre 2024) Kogi - 2. TAS1 LF FTS Form V4</t>
-  </si>
-  <si>
-    <t>ng_tas_fts_2410_kg</t>
-  </si>
-  <si>
     <t>d_community</t>
   </si>
   <si>
     <t>Select the community</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_2410_2_fts_yb</t>
+  </si>
+  <si>
+    <t>ng_tas_fts_2410_yb</t>
+  </si>
+  <si>
+    <t>(Octobre 2024) Yobe - 2. TAS1 LF FTS Form</t>
   </si>
 </sst>
 </file>
@@ -1127,11 +1127,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M8"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1270,10 +1270,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="29"/>
@@ -1379,7 +1379,7 @@
         <v>97</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>104</v>
@@ -3670,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>94</v>
